--- a/Excel/StartSceneConfig@s.xlsx
+++ b/Excel/StartSceneConfig@s.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25330"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubWork\ET-EUI\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA5C4741-2680-4B7B-A76A-3395B4BA2B78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13500"/>
+    <workbookView xWindow="2592" yWindow="2808" windowWidth="19044" windowHeight="11796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
@@ -15,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="24">
   <si>
     <t>Id</t>
   </si>
@@ -84,19 +90,17 @@
   </si>
   <si>
     <t>Robot01</t>
+  </si>
+  <si>
+    <t>Account</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,158 +122,21 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -282,194 +149,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -477,253 +158,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -738,62 +177,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1080,29 +478,29 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="C3:H11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="C3:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
-    <col min="3" max="5" width="12.625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.375" style="3" customWidth="1"/>
-    <col min="7" max="8" width="13.125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="21.109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" style="2" customWidth="1"/>
+    <col min="3" max="5" width="12.6640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" style="3" customWidth="1"/>
+    <col min="7" max="8" width="13.109375" style="3" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:8">
+    <row r="3" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
@@ -1122,7 +520,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="3:8">
+    <row r="4" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
@@ -1142,7 +540,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="3:8">
+    <row r="5" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C5" s="4" t="s">
         <v>11</v>
       </c>
@@ -1162,7 +560,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="3:8">
+    <row r="6" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C6" s="5">
         <v>1</v>
       </c>
@@ -1182,7 +580,7 @@
         <v>10002</v>
       </c>
     </row>
-    <row r="7" spans="3:8">
+    <row r="7" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C7" s="3">
         <v>2</v>
       </c>
@@ -1202,7 +600,7 @@
         <v>10003</v>
       </c>
     </row>
-    <row r="8" spans="3:8">
+    <row r="8" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C8" s="3">
         <v>3</v>
       </c>
@@ -1222,7 +620,7 @@
         <v>10004</v>
       </c>
     </row>
-    <row r="9" spans="3:8">
+    <row r="9" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C9" s="3">
         <v>4</v>
       </c>
@@ -1240,7 +638,7 @@
       </c>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" spans="3:8">
+    <row r="10" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C10" s="3">
         <v>5</v>
       </c>
@@ -1258,7 +656,7 @@
       </c>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="3:8">
+    <row r="11" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C11" s="3">
         <v>6</v>
       </c>
@@ -1276,33 +674,52 @@
       </c>
       <c r="H11" s="5"/>
     </row>
+    <row r="12" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C12" s="3">
+        <v>7</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="3">
+        <v>10005</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="C3:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="$A6:$XFD6"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
-    <col min="3" max="5" width="12.625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.375" style="3" customWidth="1"/>
-    <col min="7" max="8" width="13.125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="21.109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" style="2" customWidth="1"/>
+    <col min="3" max="5" width="12.6640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" style="3" customWidth="1"/>
+    <col min="7" max="8" width="13.109375" style="3" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:8">
+    <row r="3" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
@@ -1322,7 +739,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="3:8">
+    <row r="4" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
@@ -1342,7 +759,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="3:8">
+    <row r="5" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C5" s="4" t="s">
         <v>11</v>
       </c>
@@ -1362,7 +779,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="3:8">
+    <row r="6" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C6" s="5">
         <v>200</v>
       </c>
@@ -1381,8 +798,8 @@
       <c r="H6" s="5"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Excel/StartSceneConfig@s.xlsx
+++ b/Excel/StartSceneConfig@s.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubWork\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA5C4741-2680-4B7B-A76A-3395B4BA2B78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A897F7E-419F-4069-8758-902157F0B7D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2592" yWindow="2808" windowWidth="19044" windowHeight="11796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="25">
   <si>
     <t>Id</t>
   </si>
@@ -93,6 +93,10 @@
   </si>
   <si>
     <t>Account</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LoginCenter</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -484,10 +488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:H12"/>
+  <dimension ref="C3:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -692,6 +696,23 @@
       </c>
       <c r="H12" s="3">
         <v>10005</v>
+      </c>
+    </row>
+    <row r="13" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C13" s="3">
+        <v>8</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
